--- a/meisi.xlsx
+++ b/meisi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11745\Desktop\仮置き\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11745\Desktop\仮置き\Try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE6532C1-F86E-4FF5-87AA-840FF05571CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCA3544-E858-43E1-B50E-B5A6297A7809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{8BAF0600-49C0-434A-A24C-42D5D0453AB6}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -143,159 +139,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A190D45-AD0B-4FF9-A226-3FE6554352DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4229100" y="2590800"/>
-          <a:ext cx="2743200" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Woven City Digital Twin Function</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879A914C-25DB-409B-8CDD-7828262302D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4572000" y="2887980"/>
-          <a:ext cx="2743200" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>R&amp;D</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -969,7 +812,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
